--- a/biology/Zoologie/Alcolapia/Alcolapia.xlsx
+++ b/biology/Zoologie/Alcolapia/Alcolapia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alcolapia est un genre de poissons d'eau douce africains de la famille des Cichlidae (ordre des Cichliformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (20 novembre 2023)[1], les quatre espèces précédemment classées dans ce genre le sont dans Oreochromis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (20 novembre 2023), les quatre espèces précédemment classées dans ce genre le sont dans Oreochromis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Alcolapia Thys van den Audenaerde, 1969[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Alcolapia Thys van den Audenaerde, 1969.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Alcolapia, n'a pas d'étymologie avérée mais pourrait faire référence aux eaux particulièrement alcalines où vivent ces espèces suivi du suffixe -lapia en lien avec le genre Tilapia[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Alcolapia, n'a pas d'étymologie avérée mais pourrait faire référence aux eaux particulièrement alcalines où vivent ces espèces suivi du suffixe -lapia en lien avec le genre Tilapia.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) D. Thys van den Audenaerde, « An annotated bibliography of Tilapia (Pisces, Cichlidae) », Documentation Zoologique / Musée de l'Afrique centrale, no 14,‎ 1969, p. 1-406.</t>
         </is>
